--- a/medicine/Psychotrope/Rondinella/Rondinella.xlsx
+++ b/medicine/Psychotrope/Rondinella/Rondinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rondinella  est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Rondinella est d'origine inconnue mais il est diffusé depuis longtemps en Italie du nord.
 Il est classé cépage d'appoint en DOC Bardolino, Garda Colli Mantovani et Valpolicella.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert blanchâtre avec les bords rosés.
 Jeunes feuilles aranéeuses, à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35  jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne à grande. La grappe est pyramidale, ailée et moyennement compacte. Le cépage est de bonne vigueur. La rondinella préfère une taille longue donnant ainsi une production abondante et constante.  
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Non connu
 </t>
